--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T17:40:42+00:00</t>
+    <t>2024-12-04T09:18:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:18:19+00:00</t>
+    <t>2024-12-04T09:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:49:47+00:00</t>
+    <t>2024-12-04T11:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T11:23:03+00:00</t>
+    <t>2024-12-04T13:30:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8089,7 +8089,7 @@
         <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>72</v>
@@ -8497,7 +8497,7 @@
         <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>72</v>
@@ -9013,7 +9013,7 @@
         <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>72</v>
@@ -9421,7 +9421,7 @@
         <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>72</v>
@@ -9937,7 +9937,7 @@
         <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>72</v>
@@ -10345,7 +10345,7 @@
         <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>72</v>
@@ -10861,7 +10861,7 @@
         <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>72</v>
@@ -11269,7 +11269,7 @@
         <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>72</v>
@@ -11785,7 +11785,7 @@
         <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>72</v>
@@ -12193,7 +12193,7 @@
         <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>72</v>
@@ -12709,7 +12709,7 @@
         <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>72</v>
@@ -13117,7 +13117,7 @@
         <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>72</v>
@@ -13633,7 +13633,7 @@
         <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>72</v>
@@ -14041,7 +14041,7 @@
         <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>72</v>
@@ -18473,7 +18473,7 @@
         <v>80</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>72</v>
@@ -18577,7 +18577,7 @@
         <v>80</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>72</v>
@@ -18681,7 +18681,7 @@
         <v>80</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>72</v>
@@ -18785,7 +18785,7 @@
         <v>80</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>72</v>
@@ -18889,7 +18889,7 @@
         <v>80</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>72</v>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T13:30:21+00:00</t>
+    <t>2024-12-05T17:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T17:47:14+00:00</t>
+    <t>2024-12-06T16:44:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T16:44:21+00:00</t>
+    <t>2024-12-06T17:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T17:37:38+00:00</t>
+    <t>2024-12-06T18:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:32:50+00:00</t>
+    <t>2024-12-09T16:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:49:27+00:00</t>
+    <t>2024-12-09T17:27:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T17:27:37+00:00</t>
+    <t>2024-12-09T17:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T17:49:22+00:00</t>
+    <t>2024-12-09T18:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T18:09:54+00:00</t>
+    <t>2024-12-10T08:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:23:40+00:00</t>
+    <t>2024-12-10T13:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
